--- a/WMM_All_configurations/MCBXFB_02_Inner_Iron_600_20210510/Roxie_vs_MM_NormalMCBXFB_02_Inner_Iron_600_20210510.xlsx
+++ b/WMM_All_configurations/MCBXFB_02_Inner_Iron_600_20210510/Roxie_vs_MM_NormalMCBXFB_02_Inner_Iron_600_20210510.xlsx
@@ -618,49 +618,49 @@
         <v>0.2045609998250436</v>
       </c>
       <c r="R2">
-        <v>-0.2142381192087551</v>
+        <v>-0.2988425617549172</v>
       </c>
       <c r="S2">
-        <v>-10.13434280079964</v>
+        <v>-9.727776421031244</v>
       </c>
       <c r="T2">
-        <v>-8.119420905936501</v>
+        <v>-23.6164547842054</v>
       </c>
       <c r="U2">
-        <v>0.03943083734979726</v>
+        <v>0.07297155402910539</v>
       </c>
       <c r="V2">
-        <v>-0.009092354149173811</v>
+        <v>3.163732635147427</v>
       </c>
       <c r="W2">
-        <v>0.000119845553757875</v>
+        <v>0.03455639280639029</v>
       </c>
       <c r="X2">
-        <v>-6.014516645309314E-05</v>
+        <v>-3.749163636960444</v>
       </c>
       <c r="Y2">
-        <v>-0.0001222955151956552</v>
+        <v>-0.03719803425637391</v>
       </c>
       <c r="Z2">
-        <v>8.044437184162211E-05</v>
+        <v>-1.430227016780397</v>
       </c>
       <c r="AA2">
-        <v>9.870429726370274E-05</v>
+        <v>0.004339350245012328</v>
       </c>
       <c r="AB2">
-        <v>-2.837799654647825E-05</v>
+        <v>-1.813934712341678</v>
       </c>
       <c r="AC2">
-        <v>6.50251478585407E-05</v>
+        <v>0.03295322185671454</v>
       </c>
       <c r="AD2">
-        <v>7.231420564104621E-05</v>
+        <v>7.736624931039496</v>
       </c>
       <c r="AE2">
-        <v>-9.229041439921915E-05</v>
+        <v>-0.02138943740816093</v>
       </c>
       <c r="AF2">
-        <v>-8.358432251356015E-05</v>
+        <v>-4.668774128269343</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -716,49 +716,49 @@
         <v>0.2045609998250436</v>
       </c>
       <c r="R3">
-        <v>607.1250442791358</v>
+        <v>3883.249378802444</v>
       </c>
       <c r="S3">
-        <v>0.2002180258393484</v>
+        <v>-4.310146059960727</v>
       </c>
       <c r="T3">
-        <v>-4708.759004011624</v>
+        <v>-102.2295270416021</v>
       </c>
       <c r="U3">
-        <v>0.01005479759066709</v>
+        <v>0.2098808488041859</v>
       </c>
       <c r="V3">
-        <v>228.8664842499246</v>
+        <v>-41.24458552371551</v>
       </c>
       <c r="W3">
-        <v>8.158561030081061E-06</v>
+        <v>0.009078976583652964</v>
       </c>
       <c r="X3">
-        <v>66.73826454821284</v>
+        <v>-4.916793741932531</v>
       </c>
       <c r="Y3">
-        <v>-0.0001012642576924279</v>
+        <v>0.006673221595687773</v>
       </c>
       <c r="Z3">
-        <v>-2.03841932171762</v>
+        <v>-1.727976748465495</v>
       </c>
       <c r="AA3">
-        <v>-3.87864707605903E-05</v>
+        <v>0.002233848600394632</v>
       </c>
       <c r="AB3">
-        <v>-1.125255827117183</v>
+        <v>-0.5432594962308495</v>
       </c>
       <c r="AC3">
-        <v>-0.0001182460705770079</v>
+        <v>-0.004737495432041968</v>
       </c>
       <c r="AD3">
-        <v>-0.1336809685286114</v>
+        <v>-0.6079292103552552</v>
       </c>
       <c r="AE3">
-        <v>1.103279719834037E-05</v>
+        <v>-0.004324656446714305</v>
       </c>
       <c r="AF3">
-        <v>0.05489778813406233</v>
+        <v>0.5943259143989457</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -814,49 +814,49 @@
         <v>0.2045609998250436</v>
       </c>
       <c r="R4">
-        <v>10000</v>
+        <v>9999.54449330356</v>
       </c>
       <c r="S4">
-        <v>0.0006136911087495573</v>
+        <v>-0.00141798797441333</v>
       </c>
       <c r="T4">
-        <v>-13.01009564293305</v>
+        <v>-13.01506571148024</v>
       </c>
       <c r="U4">
-        <v>-0.0006199433227063407</v>
+        <v>-0.0003021302918249709</v>
       </c>
       <c r="V4">
-        <v>0.2965515409139213</v>
+        <v>0.2767574585328175</v>
       </c>
       <c r="W4">
-        <v>-3.840541976620617E-05</v>
+        <v>-5.063763162227398E-05</v>
       </c>
       <c r="X4">
-        <v>1.776177825008856</v>
+        <v>1.78449158866461</v>
       </c>
       <c r="Y4">
-        <v>-8.204746723343961E-07</v>
+        <v>2.816113789196996E-06</v>
       </c>
       <c r="Z4">
-        <v>2.579383634431456</v>
+        <v>2.576922215211461</v>
       </c>
       <c r="AA4">
-        <v>2.426112291888062E-07</v>
+        <v>-3.348889359806453E-06</v>
       </c>
       <c r="AB4">
-        <v>3.086787105915692</v>
+        <v>3.086940170692143</v>
       </c>
       <c r="AC4">
-        <v>-5.406482465462274E-07</v>
+        <v>1.230594817298837E-06</v>
       </c>
       <c r="AD4">
-        <v>-1.695288699964576</v>
+        <v>-1.695117678733872</v>
       </c>
       <c r="AE4">
-        <v>-9.356889833510449E-07</v>
+        <v>-2.406476643418612E-06</v>
       </c>
       <c r="AF4">
-        <v>0.3239054197662061</v>
+        <v>0.3234253558622677</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -912,49 +912,49 @@
         <v>0.2045609998250436</v>
       </c>
       <c r="R5">
-        <v>698.4006376195537</v>
+        <v>3924.583743737668</v>
       </c>
       <c r="S5">
-        <v>-0.08167502825771586</v>
+        <v>-0.2664069153075049</v>
       </c>
       <c r="T5">
-        <v>-3063.047437731915</v>
+        <v>732.0905336348602</v>
       </c>
       <c r="U5">
-        <v>-0.006635285261335113</v>
+        <v>-0.01983842572494893</v>
       </c>
       <c r="V5">
-        <v>379.0518614122838</v>
+        <v>357.9478538335806</v>
       </c>
       <c r="W5">
-        <v>0.00146712106015871</v>
+        <v>0.001331799116434746</v>
       </c>
       <c r="X5">
-        <v>139.6922760115557</v>
+        <v>124.1039117647692</v>
       </c>
       <c r="Y5">
-        <v>1.649876699061199E-05</v>
+        <v>-0.000581540885001387</v>
       </c>
       <c r="Z5">
-        <v>27.63755307868945</v>
+        <v>45.68089166192325</v>
       </c>
       <c r="AA5">
-        <v>2.644964199025409E-05</v>
+        <v>-2.131295993674912E-05</v>
       </c>
       <c r="AB5">
-        <v>9.825791051589727</v>
+        <v>17.56577122913476</v>
       </c>
       <c r="AC5">
-        <v>4.814430386114705E-05</v>
+        <v>0.0006067413513743717</v>
       </c>
       <c r="AD5">
-        <v>4.077619253790233</v>
+        <v>5.911530117808881</v>
       </c>
       <c r="AE5">
-        <v>-8.39429971258054E-06</v>
+        <v>0.0003945885488136774</v>
       </c>
       <c r="AF5">
-        <v>1.602892902936156</v>
+        <v>2.44918292339739</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -1010,49 +1010,49 @@
         <v>0.2045609998250436</v>
       </c>
       <c r="R6">
-        <v>1.072649477040103</v>
+        <v>1.629919257347524</v>
       </c>
       <c r="S6">
-        <v>-0.2332752323898714</v>
+        <v>-0.2241967543583217</v>
       </c>
       <c r="T6">
-        <v>3.625812343663764</v>
+        <v>13.36935793973882</v>
       </c>
       <c r="U6">
-        <v>-0.001708896601561238</v>
+        <v>-0.01011433821218637</v>
       </c>
       <c r="V6">
-        <v>0.002302461438194574</v>
+        <v>-0.3463083933613519</v>
       </c>
       <c r="W6">
-        <v>-5.912840995476055E-07</v>
+        <v>0.009535958439886217</v>
       </c>
       <c r="X6">
-        <v>-1.046391222417033E-05</v>
+        <v>0.6722488571783672</v>
       </c>
       <c r="Y6">
-        <v>-5.069460342887684E-06</v>
+        <v>0.005900677588224554</v>
       </c>
       <c r="Z6">
-        <v>4.757790689711363E-06</v>
+        <v>0.2557707902136752</v>
       </c>
       <c r="AA6">
-        <v>-3.357796386199349E-06</v>
+        <v>0.0006709541502853638</v>
       </c>
       <c r="AB6">
-        <v>7.816589485346491E-06</v>
+        <v>0.4136810761555675</v>
       </c>
       <c r="AC6">
-        <v>7.817104823268151E-06</v>
+        <v>-0.008947630803538735</v>
       </c>
       <c r="AD6">
-        <v>-6.05291104989709E-06</v>
+        <v>-1.197859966876656</v>
       </c>
       <c r="AE6">
-        <v>-3.244808892724421E-06</v>
+        <v>-0.005015797054788405</v>
       </c>
       <c r="AF6">
-        <v>-1.313824055201839E-06</v>
+        <v>0.5390454768932538</v>
       </c>
     </row>
   </sheetData>

--- a/WMM_All_configurations/MCBXFB_02_Inner_Iron_600_20210510/Roxie_vs_MM_NormalMCBXFB_02_Inner_Iron_600_20210510.xlsx
+++ b/WMM_All_configurations/MCBXFB_02_Inner_Iron_600_20210510/Roxie_vs_MM_NormalMCBXFB_02_Inner_Iron_600_20210510.xlsx
@@ -576,91 +576,91 @@
         <v>10000</v>
       </c>
       <c r="D2">
-        <v>1.764545479821503</v>
+        <v>1.764545479821504</v>
       </c>
       <c r="E2">
         <v>-11.30385615500875</v>
       </c>
       <c r="F2">
-        <v>0.9323300061914601</v>
+        <v>0.9323300061914606</v>
       </c>
       <c r="G2">
-        <v>-8.05514969602711</v>
+        <v>-8.055149696027112</v>
       </c>
       <c r="H2">
-        <v>0.08475154653305308</v>
+        <v>0.08475154653305331</v>
       </c>
       <c r="I2">
         <v>-0.7214694126825102</v>
       </c>
       <c r="J2">
-        <v>-0.08770483024230601</v>
+        <v>-0.08770483024230606</v>
       </c>
       <c r="K2">
-        <v>0.9134296683075127</v>
+        <v>0.9134296683075125</v>
       </c>
       <c r="L2">
-        <v>-0.4856599602762319</v>
+        <v>-0.485659960276233</v>
       </c>
       <c r="M2">
-        <v>2.762116441135252</v>
+        <v>2.762116441135251</v>
       </c>
       <c r="N2">
-        <v>0.4172678856937223</v>
+        <v>0.4172678856937152</v>
       </c>
       <c r="O2">
-        <v>-1.807882793858985</v>
+        <v>-1.807882793858971</v>
       </c>
       <c r="P2">
-        <v>-0.08951806505899766</v>
+        <v>-0.08951806505899333</v>
       </c>
       <c r="Q2">
-        <v>0.2045609998250436</v>
+        <v>0.2045609998250454</v>
       </c>
       <c r="R2">
         <v>-0.2988425617549172</v>
       </c>
       <c r="S2">
-        <v>-9.727776421031244</v>
+        <v>0.0003374155165390692</v>
       </c>
       <c r="T2">
-        <v>-23.6164547842054</v>
+        <v>0.001337716227943058</v>
       </c>
       <c r="U2">
-        <v>0.07297155402910539</v>
+        <v>-3.836301416762852E-06</v>
       </c>
       <c r="V2">
-        <v>3.163732635147427</v>
+        <v>-7.935477442629211E-05</v>
       </c>
       <c r="W2">
-        <v>0.03455639280639029</v>
+        <v>-9.125363393711146E-07</v>
       </c>
       <c r="X2">
-        <v>-3.749163636960444</v>
+        <v>0.000103319795918088</v>
       </c>
       <c r="Y2">
-        <v>-0.03719803425637391</v>
+        <v>9.641793466235713E-07</v>
       </c>
       <c r="Z2">
-        <v>-1.430227016780397</v>
+        <v>3.042224649662914E-05</v>
       </c>
       <c r="AA2">
-        <v>0.004339350245012328</v>
+        <v>-2.557583858044626E-08</v>
       </c>
       <c r="AB2">
-        <v>-1.813934712341678</v>
+        <v>4.90838083535676E-05</v>
       </c>
       <c r="AC2">
-        <v>0.03295322185671454</v>
+        <v>-1.007132172838627E-06</v>
       </c>
       <c r="AD2">
-        <v>7.736624931039496</v>
+        <v>-0.0002135352256541946</v>
       </c>
       <c r="AE2">
-        <v>-0.02138943740816093</v>
+        <v>5.455179660721536E-07</v>
       </c>
       <c r="AF2">
-        <v>-4.668774128269343</v>
+        <v>0.0001170906689813567</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -674,91 +674,91 @@
         <v>10000</v>
       </c>
       <c r="D3">
-        <v>1.764545479821503</v>
+        <v>1.764545479821504</v>
       </c>
       <c r="E3">
         <v>-11.30385615500875</v>
       </c>
       <c r="F3">
-        <v>0.9323300061914601</v>
+        <v>0.9323300061914606</v>
       </c>
       <c r="G3">
-        <v>-8.05514969602711</v>
+        <v>-8.055149696027112</v>
       </c>
       <c r="H3">
-        <v>0.08475154653305308</v>
+        <v>0.08475154653305331</v>
       </c>
       <c r="I3">
         <v>-0.7214694126825102</v>
       </c>
       <c r="J3">
-        <v>-0.08770483024230601</v>
+        <v>-0.08770483024230606</v>
       </c>
       <c r="K3">
-        <v>0.9134296683075127</v>
+        <v>0.9134296683075125</v>
       </c>
       <c r="L3">
-        <v>-0.4856599602762319</v>
+        <v>-0.485659960276233</v>
       </c>
       <c r="M3">
-        <v>2.762116441135252</v>
+        <v>2.762116441135251</v>
       </c>
       <c r="N3">
-        <v>0.4172678856937223</v>
+        <v>0.4172678856937152</v>
       </c>
       <c r="O3">
-        <v>-1.807882793858985</v>
+        <v>-1.807882793858971</v>
       </c>
       <c r="P3">
-        <v>-0.08951806505899766</v>
+        <v>-0.08951806505899333</v>
       </c>
       <c r="Q3">
-        <v>0.2045609998250436</v>
+        <v>0.2045609998250454</v>
       </c>
       <c r="R3">
         <v>3883.249378802444</v>
       </c>
       <c r="S3">
-        <v>-4.310146059960727</v>
+        <v>0.003145268273837382</v>
       </c>
       <c r="T3">
-        <v>-102.2295270416021</v>
+        <v>-5.159703901125607</v>
       </c>
       <c r="U3">
-        <v>0.2098808488041859</v>
+        <v>0.0002426066663963457</v>
       </c>
       <c r="V3">
-        <v>-41.24458552371551</v>
+        <v>-3.447569149519026</v>
       </c>
       <c r="W3">
-        <v>0.009078976583652964</v>
+        <v>-1.342709741750565E-05</v>
       </c>
       <c r="X3">
-        <v>-4.916793741932531</v>
+        <v>-3.807632378352325</v>
       </c>
       <c r="Y3">
-        <v>0.006673221595687773</v>
+        <v>1.803884600817608E-06</v>
       </c>
       <c r="Z3">
-        <v>-1.727976748465495</v>
+        <v>-0.7959591041396851</v>
       </c>
       <c r="AA3">
-        <v>0.002233848600394632</v>
+        <v>5.387616708110245E-07</v>
       </c>
       <c r="AB3">
-        <v>-0.5432594962308495</v>
+        <v>0.06023825116324097</v>
       </c>
       <c r="AC3">
-        <v>-0.004737495432041968</v>
+        <v>-1.362621105055171E-06</v>
       </c>
       <c r="AD3">
-        <v>-0.6079292103552552</v>
+        <v>-0.6113731744562918</v>
       </c>
       <c r="AE3">
-        <v>-0.004324656446714305</v>
+        <v>5.870551755424866E-07</v>
       </c>
       <c r="AF3">
-        <v>0.5943259143989457</v>
+        <v>0.01608037360569016</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -772,91 +772,91 @@
         <v>10000</v>
       </c>
       <c r="D4">
-        <v>1.764545479821503</v>
+        <v>1.764545479821504</v>
       </c>
       <c r="E4">
         <v>-11.30385615500875</v>
       </c>
       <c r="F4">
-        <v>0.9323300061914601</v>
+        <v>0.9323300061914606</v>
       </c>
       <c r="G4">
-        <v>-8.05514969602711</v>
+        <v>-8.055149696027112</v>
       </c>
       <c r="H4">
-        <v>0.08475154653305308</v>
+        <v>0.08475154653305331</v>
       </c>
       <c r="I4">
         <v>-0.7214694126825102</v>
       </c>
       <c r="J4">
-        <v>-0.08770483024230601</v>
+        <v>-0.08770483024230606</v>
       </c>
       <c r="K4">
-        <v>0.9134296683075127</v>
+        <v>0.9134296683075125</v>
       </c>
       <c r="L4">
-        <v>-0.4856599602762319</v>
+        <v>-0.485659960276233</v>
       </c>
       <c r="M4">
-        <v>2.762116441135252</v>
+        <v>2.762116441135251</v>
       </c>
       <c r="N4">
-        <v>0.4172678856937223</v>
+        <v>0.4172678856937152</v>
       </c>
       <c r="O4">
-        <v>-1.807882793858985</v>
+        <v>-1.807882793858971</v>
       </c>
       <c r="P4">
-        <v>-0.08951806505899766</v>
+        <v>-0.08951806505899333</v>
       </c>
       <c r="Q4">
-        <v>0.2045609998250436</v>
+        <v>0.2045609998250454</v>
       </c>
       <c r="R4">
         <v>9999.54449330356</v>
       </c>
       <c r="S4">
-        <v>-0.00141798797441333</v>
+        <v>-0.001417911759471807</v>
       </c>
       <c r="T4">
-        <v>-13.01506571148024</v>
+        <v>-13.01447651255</v>
       </c>
       <c r="U4">
-        <v>-0.0003021302918249709</v>
+        <v>-0.0003021288369870989</v>
       </c>
       <c r="V4">
-        <v>0.2767574585328175</v>
+        <v>0.2767492624822251</v>
       </c>
       <c r="W4">
-        <v>-5.063763162227398E-05</v>
+        <v>-5.063514121325112E-05</v>
       </c>
       <c r="X4">
-        <v>1.78449158866461</v>
+        <v>1.784408281980764</v>
       </c>
       <c r="Y4">
-        <v>2.816113789196996E-06</v>
+        <v>2.81594387959892E-06</v>
       </c>
       <c r="Z4">
-        <v>2.576922215211461</v>
+        <v>2.576805423864307</v>
       </c>
       <c r="AA4">
-        <v>-3.348889359806453E-06</v>
+        <v>-3.348894054554141E-06</v>
       </c>
       <c r="AB4">
-        <v>3.086940170692143</v>
+        <v>3.086799461969909</v>
       </c>
       <c r="AC4">
-        <v>1.230594817298837E-06</v>
+        <v>1.230618501633345E-06</v>
       </c>
       <c r="AD4">
-        <v>-1.695117678733872</v>
+        <v>-1.69504051786519</v>
       </c>
       <c r="AE4">
-        <v>-2.406476643418612E-06</v>
+        <v>-2.406530088198986E-06</v>
       </c>
       <c r="AF4">
-        <v>0.3234253558622677</v>
+        <v>0.3234106667385235</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -870,91 +870,91 @@
         <v>10000</v>
       </c>
       <c r="D5">
-        <v>1.764545479821503</v>
+        <v>1.764545479821504</v>
       </c>
       <c r="E5">
         <v>-11.30385615500875</v>
       </c>
       <c r="F5">
-        <v>0.9323300061914601</v>
+        <v>0.9323300061914606</v>
       </c>
       <c r="G5">
-        <v>-8.05514969602711</v>
+        <v>-8.055149696027112</v>
       </c>
       <c r="H5">
-        <v>0.08475154653305308</v>
+        <v>0.08475154653305331</v>
       </c>
       <c r="I5">
         <v>-0.7214694126825102</v>
       </c>
       <c r="J5">
-        <v>-0.08770483024230601</v>
+        <v>-0.08770483024230606</v>
       </c>
       <c r="K5">
-        <v>0.9134296683075127</v>
+        <v>0.9134296683075125</v>
       </c>
       <c r="L5">
-        <v>-0.4856599602762319</v>
+        <v>-0.485659960276233</v>
       </c>
       <c r="M5">
-        <v>2.762116441135252</v>
+        <v>2.762116441135251</v>
       </c>
       <c r="N5">
-        <v>0.4172678856937223</v>
+        <v>0.4172678856937152</v>
       </c>
       <c r="O5">
-        <v>-1.807882793858985</v>
+        <v>-1.807882793858971</v>
       </c>
       <c r="P5">
-        <v>-0.08951806505899766</v>
+        <v>-0.08951806505899333</v>
       </c>
       <c r="Q5">
-        <v>0.2045609998250436</v>
+        <v>0.2045609998250454</v>
       </c>
       <c r="R5">
         <v>3924.583743737668</v>
       </c>
       <c r="S5">
-        <v>-0.2664069153075049</v>
+        <v>-0.001703083995411835</v>
       </c>
       <c r="T5">
-        <v>732.0905336348602</v>
+        <v>-2.912983473620887</v>
       </c>
       <c r="U5">
-        <v>-0.01983842572494893</v>
+        <v>-0.000122347679660836</v>
       </c>
       <c r="V5">
-        <v>357.9478538335806</v>
+        <v>-0.07706840814960061</v>
       </c>
       <c r="W5">
-        <v>0.001331799116434746</v>
+        <v>2.349075611653704E-05</v>
       </c>
       <c r="X5">
-        <v>124.1039117647692</v>
+        <v>-2.024201225339</v>
       </c>
       <c r="Y5">
-        <v>-0.000581540885001387</v>
+        <v>1.976982359299177E-06</v>
       </c>
       <c r="Z5">
-        <v>45.68089166192325</v>
+        <v>-0.4878575412004966</v>
       </c>
       <c r="AA5">
-        <v>-2.131295993674912E-05</v>
+        <v>-1.790028598755125E-07</v>
       </c>
       <c r="AB5">
-        <v>17.56577122913476</v>
+        <v>0.2602097271581776</v>
       </c>
       <c r="AC5">
-        <v>0.0006067413513743717</v>
+        <v>4.500950413440616E-07</v>
       </c>
       <c r="AD5">
-        <v>5.911530117808881</v>
+        <v>-0.5309228916190798</v>
       </c>
       <c r="AE5">
-        <v>0.0003945885488136774</v>
+        <v>2.304550423522201E-06</v>
       </c>
       <c r="AF5">
-        <v>2.44918292339739</v>
+        <v>0.04986165914984727</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -968,91 +968,91 @@
         <v>10000</v>
       </c>
       <c r="D6">
-        <v>1.764545479821503</v>
+        <v>1.764545479821504</v>
       </c>
       <c r="E6">
         <v>-11.30385615500875</v>
       </c>
       <c r="F6">
-        <v>0.9323300061914601</v>
+        <v>0.9323300061914606</v>
       </c>
       <c r="G6">
-        <v>-8.05514969602711</v>
+        <v>-8.055149696027112</v>
       </c>
       <c r="H6">
-        <v>0.08475154653305308</v>
+        <v>0.08475154653305331</v>
       </c>
       <c r="I6">
         <v>-0.7214694126825102</v>
       </c>
       <c r="J6">
-        <v>-0.08770483024230601</v>
+        <v>-0.08770483024230606</v>
       </c>
       <c r="K6">
-        <v>0.9134296683075127</v>
+        <v>0.9134296683075125</v>
       </c>
       <c r="L6">
-        <v>-0.4856599602762319</v>
+        <v>-0.485659960276233</v>
       </c>
       <c r="M6">
-        <v>2.762116441135252</v>
+        <v>2.762116441135251</v>
       </c>
       <c r="N6">
-        <v>0.4172678856937223</v>
+        <v>0.4172678856937152</v>
       </c>
       <c r="O6">
-        <v>-1.807882793858985</v>
+        <v>-1.807882793858971</v>
       </c>
       <c r="P6">
-        <v>-0.08951806505899766</v>
+        <v>-0.08951806505899333</v>
       </c>
       <c r="Q6">
-        <v>0.2045609998250436</v>
+        <v>0.2045609998250454</v>
       </c>
       <c r="R6">
         <v>1.629919257347524</v>
       </c>
       <c r="S6">
-        <v>-0.2241967543583217</v>
+        <v>-3.101201890367674E-05</v>
       </c>
       <c r="T6">
-        <v>13.36935793973882</v>
+        <v>0.004891586602117523</v>
       </c>
       <c r="U6">
-        <v>-0.01011433821218637</v>
+        <v>-2.079313957908111E-06</v>
       </c>
       <c r="V6">
-        <v>-0.3463083933613519</v>
+        <v>-2.278909536938637E-05</v>
       </c>
       <c r="W6">
-        <v>0.009535958439886217</v>
+        <v>1.477197993531028E-06</v>
       </c>
       <c r="X6">
-        <v>0.6722488571783672</v>
+        <v>9.616244135084262E-05</v>
       </c>
       <c r="Y6">
-        <v>0.005900677588224554</v>
+        <v>7.749681568662174E-07</v>
       </c>
       <c r="Z6">
-        <v>0.2557707902136752</v>
+        <v>2.836587273695381E-05</v>
       </c>
       <c r="AA6">
-        <v>0.0006709541502853638</v>
+        <v>2.19672190335622E-07</v>
       </c>
       <c r="AB6">
-        <v>0.4136810761555675</v>
+        <v>5.50600451644013E-05</v>
       </c>
       <c r="AC6">
-        <v>-0.008947630803538735</v>
+        <v>-1.315272239759572E-06</v>
       </c>
       <c r="AD6">
-        <v>-1.197859966876656</v>
+        <v>-0.0001700515840499074</v>
       </c>
       <c r="AE6">
-        <v>-0.005015797054788405</v>
+        <v>-8.665636477264422E-07</v>
       </c>
       <c r="AF6">
-        <v>0.5390454768932538</v>
+        <v>6.589463835234729E-05</v>
       </c>
     </row>
   </sheetData>
